--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Desktop/Distributed-KV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5142BAD6-62A1-154B-BF92-CA93704235C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9767F1-D612-B54E-9A18-08220B880F1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{23882F9B-746C-C945-B14F-BCE806FF32FE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{23882F9B-746C-C945-B14F-BCE806FF32FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,6 +422,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,80 +464,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94371E2-5E84-904C-87A9-1851FE305B73}">
   <dimension ref="A2:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -861,295 +864,295 @@
     <row r="7" spans="1:34">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="26" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="28"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="22"/>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="31"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="25"/>
     </row>
     <row r="9" spans="1:34" ht="17" thickBot="1">
       <c r="B9" s="2"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="33"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="28"/>
     </row>
     <row r="10" spans="1:34" ht="17" thickBot="1">
       <c r="B10" s="3"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="6" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="6" t="s">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="6" t="s">
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="6" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="6" t="s">
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="6" t="s">
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="8"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="19"/>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="22" t="s">
+      <c r="Q11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="22" t="s">
+      <c r="T11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="22" t="s">
+      <c r="U11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="V11" s="23" t="s">
+      <c r="V11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="W11" s="21" t="s">
+      <c r="W11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="X11" s="22" t="s">
+      <c r="X11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="22" t="s">
+      <c r="Y11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Z11" s="24" t="s">
+      <c r="Z11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AA11" s="21" t="s">
+      <c r="AA11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AB11" s="22" t="s">
+      <c r="AB11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="22" t="s">
+      <c r="AC11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AD11" s="23" t="s">
+      <c r="AD11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AE11" s="21" t="s">
+      <c r="AE11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AF11" s="22" t="s">
+      <c r="AF11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AG11" s="22" t="s">
+      <c r="AG11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AH11" s="23" t="s">
+      <c r="AH11" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="9">
-        <v>985756</v>
+      <c r="B12" s="30"/>
+      <c r="C12" s="6">
+        <v>23781</v>
       </c>
       <c r="D12" s="4">
-        <v>4319</v>
+        <v>28703</v>
       </c>
       <c r="E12" s="4">
-        <v>12163</v>
-      </c>
-      <c r="F12" s="10">
-        <v>20353</v>
-      </c>
-      <c r="G12" s="9">
-        <v>998220</v>
+        <v>184809</v>
+      </c>
+      <c r="F12" s="7">
+        <v>276560</v>
+      </c>
+      <c r="G12" s="6">
+        <v>23606</v>
       </c>
       <c r="H12" s="4">
-        <v>4626</v>
+        <v>28311</v>
       </c>
       <c r="I12" s="4">
-        <v>12291</v>
+        <v>185966</v>
       </c>
       <c r="J12" s="5">
-        <v>18440</v>
-      </c>
-      <c r="K12" s="9" t="s">
+        <v>267205</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -1158,10 +1161,10 @@
       <c r="M12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="9" t="s">
+      <c r="N12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -1170,10 +1173,10 @@
       <c r="Q12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="9" t="s">
+      <c r="R12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T12" s="4" t="s">
@@ -1182,10 +1185,10 @@
       <c r="U12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="9" t="s">
+      <c r="V12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="X12" s="4" t="s">
@@ -1197,7 +1200,7 @@
       <c r="Z12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AA12" s="9" t="s">
+      <c r="AA12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AB12" s="4" t="s">
@@ -1206,10 +1209,10 @@
       <c r="AC12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE12" s="9" t="s">
+      <c r="AD12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AF12" s="4" t="s">
@@ -1218,40 +1221,40 @@
       <c r="AG12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AH12" s="10" t="s">
+      <c r="AH12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="9">
-        <v>1983670</v>
+      <c r="B13" s="30"/>
+      <c r="C13" s="12">
+        <v>43186</v>
       </c>
       <c r="D13" s="4">
-        <v>1565</v>
+        <v>10444</v>
       </c>
       <c r="E13" s="4">
-        <v>7555</v>
-      </c>
-      <c r="F13" s="10">
-        <v>17686</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1697794</v>
+        <v>62790</v>
+      </c>
+      <c r="F13" s="7">
+        <v>190177</v>
+      </c>
+      <c r="G13" s="6">
+        <v>43417</v>
       </c>
       <c r="H13" s="4">
-        <v>1754</v>
+        <v>10159</v>
       </c>
       <c r="I13" s="4">
-        <v>8314</v>
+        <v>61142</v>
       </c>
       <c r="J13" s="5">
-        <v>16480</v>
-      </c>
-      <c r="K13" s="9" t="s">
+        <v>223288</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -1260,10 +1263,10 @@
       <c r="M13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="9" t="s">
+      <c r="N13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -1272,10 +1275,10 @@
       <c r="Q13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13" s="9" t="s">
+      <c r="R13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T13" s="4" t="s">
@@ -1284,10 +1287,10 @@
       <c r="U13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W13" s="9" t="s">
+      <c r="V13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="X13" s="4" t="s">
@@ -1299,7 +1302,7 @@
       <c r="Z13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AA13" s="9" t="s">
+      <c r="AA13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AB13" s="4" t="s">
@@ -1308,10 +1311,10 @@
       <c r="AC13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE13" s="9" t="s">
+      <c r="AD13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AF13" s="4" t="s">
@@ -1320,40 +1323,40 @@
       <c r="AG13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AH13" s="10" t="s">
+      <c r="AH13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="9">
-        <v>3777341</v>
+      <c r="B14" s="30"/>
+      <c r="C14" s="6">
+        <v>32645</v>
       </c>
       <c r="D14" s="4">
-        <v>1237</v>
+        <v>9542</v>
       </c>
       <c r="E14" s="4">
-        <v>2944</v>
-      </c>
-      <c r="F14" s="10">
-        <v>11873</v>
-      </c>
-      <c r="G14" s="9">
-        <v>3852032</v>
+        <v>55407</v>
+      </c>
+      <c r="F14" s="7">
+        <v>127586</v>
+      </c>
+      <c r="G14" s="6">
+        <v>33326</v>
       </c>
       <c r="H14" s="4">
-        <v>3852032</v>
+        <v>9593</v>
       </c>
       <c r="I14" s="4">
-        <v>2871</v>
+        <v>54848</v>
       </c>
       <c r="J14" s="5">
-        <v>11695</v>
-      </c>
-      <c r="K14" s="9" t="s">
+        <v>134336</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -1362,10 +1365,10 @@
       <c r="M14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="9" t="s">
+      <c r="N14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P14" s="4" t="s">
@@ -1374,10 +1377,10 @@
       <c r="Q14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S14" s="9" t="s">
+      <c r="R14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T14" s="4" t="s">
@@ -1386,10 +1389,10 @@
       <c r="U14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W14" s="9" t="s">
+      <c r="V14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="X14" s="4" t="s">
@@ -1401,7 +1404,7 @@
       <c r="Z14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AA14" s="9" t="s">
+      <c r="AA14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AB14" s="4" t="s">
@@ -1410,10 +1413,10 @@
       <c r="AC14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE14" s="9" t="s">
+      <c r="AD14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AF14" s="4" t="s">
@@ -1422,16 +1425,16 @@
       <c r="AG14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AH14" s="10" t="s">
+      <c r="AH14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1440,10 +1443,10 @@
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1455,31 +1458,31 @@
       <c r="J15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="9">
-        <v>68683</v>
+      <c r="K15" s="6">
+        <v>53</v>
       </c>
       <c r="L15" s="4">
-        <v>1023</v>
+        <v>4778</v>
       </c>
       <c r="M15" s="4">
-        <v>3344</v>
-      </c>
-      <c r="N15" s="10">
-        <v>6898</v>
-      </c>
-      <c r="O15" s="9">
-        <v>68289</v>
+        <v>143963</v>
+      </c>
+      <c r="N15" s="7">
+        <v>434116</v>
+      </c>
+      <c r="O15" s="6">
+        <v>54</v>
       </c>
       <c r="P15" s="4">
-        <v>1009</v>
+        <v>4678</v>
       </c>
       <c r="Q15" s="4">
-        <v>3148</v>
-      </c>
-      <c r="R15" s="10">
-        <v>8027</v>
-      </c>
-      <c r="S15" s="9" t="s">
+        <v>142273</v>
+      </c>
+      <c r="R15" s="7">
+        <v>399720</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T15" s="4" t="s">
@@ -1488,10 +1491,10 @@
       <c r="U15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W15" s="9" t="s">
+      <c r="V15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="X15" s="4" t="s">
@@ -1503,7 +1506,7 @@
       <c r="Z15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AA15" s="9" t="s">
+      <c r="AA15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AB15" s="4" t="s">
@@ -1512,10 +1515,10 @@
       <c r="AC15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE15" s="9" t="s">
+      <c r="AD15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AF15" s="4" t="s">
@@ -1524,40 +1527,40 @@
       <c r="AG15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AH15" s="10" t="s">
+      <c r="AH15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="9">
-        <v>1680809</v>
+      <c r="B16" s="30"/>
+      <c r="C16" s="6">
+        <v>19474</v>
       </c>
       <c r="D16" s="4">
-        <v>2503</v>
+        <v>8646</v>
       </c>
       <c r="E16" s="4">
-        <v>7593</v>
-      </c>
-      <c r="F16" s="10">
-        <v>13376</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1642455</v>
+        <v>65416</v>
+      </c>
+      <c r="F16" s="7">
+        <v>304726</v>
+      </c>
+      <c r="G16" s="6">
+        <v>17390</v>
       </c>
       <c r="H16" s="4">
-        <v>2534</v>
+        <v>8352</v>
       </c>
       <c r="I16" s="4">
-        <v>7653</v>
+        <v>63847</v>
       </c>
       <c r="J16" s="5">
-        <v>13347</v>
-      </c>
-      <c r="K16" s="9" t="s">
+        <v>316163</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -1566,10 +1569,10 @@
       <c r="M16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="9" t="s">
+      <c r="N16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P16" s="4" t="s">
@@ -1578,10 +1581,10 @@
       <c r="Q16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S16" s="9" t="s">
+      <c r="R16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T16" s="4" t="s">
@@ -1590,10 +1593,10 @@
       <c r="U16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W16" s="9" t="s">
+      <c r="V16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="X16" s="4" t="s">
@@ -1605,7 +1608,7 @@
       <c r="Z16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AA16" s="9" t="s">
+      <c r="AA16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AB16" s="4" t="s">
@@ -1614,10 +1617,10 @@
       <c r="AC16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE16" s="9" t="s">
+      <c r="AD16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AF16" s="4" t="s">
@@ -1626,40 +1629,40 @@
       <c r="AG16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AH16" s="10" t="s">
+      <c r="AH16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="9">
-        <v>3213579</v>
+      <c r="B17" s="30"/>
+      <c r="C17" s="6">
+        <v>20874</v>
       </c>
       <c r="D17" s="4">
-        <v>528</v>
+        <v>1762</v>
       </c>
       <c r="E17" s="4">
-        <v>3859</v>
-      </c>
-      <c r="F17" s="10">
-        <v>10414</v>
-      </c>
-      <c r="G17" s="9">
-        <v>3296030</v>
+        <v>17076</v>
+      </c>
+      <c r="F17" s="7">
+        <v>83774</v>
+      </c>
+      <c r="G17" s="6">
+        <v>21546</v>
       </c>
       <c r="H17" s="4">
-        <v>549</v>
+        <v>1827</v>
       </c>
       <c r="I17" s="4">
-        <v>4103</v>
+        <v>17194</v>
       </c>
       <c r="J17" s="5">
-        <v>10936</v>
-      </c>
-      <c r="K17" s="9" t="s">
+        <v>303943</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -1668,10 +1671,10 @@
       <c r="M17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" s="9" t="s">
+      <c r="N17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P17" s="4" t="s">
@@ -1680,10 +1683,10 @@
       <c r="Q17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S17" s="9" t="s">
+      <c r="R17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T17" s="4" t="s">
@@ -1692,10 +1695,10 @@
       <c r="U17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W17" s="9" t="s">
+      <c r="V17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="4" t="s">
@@ -1707,7 +1710,7 @@
       <c r="Z17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AA17" s="9" t="s">
+      <c r="AA17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AB17" s="4" t="s">
@@ -1716,10 +1719,10 @@
       <c r="AC17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE17" s="9" t="s">
+      <c r="AD17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AF17" s="4" t="s">
@@ -1728,40 +1731,40 @@
       <c r="AG17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AH17" s="10" t="s">
+      <c r="AH17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="9">
-        <v>6421795</v>
+      <c r="B18" s="30"/>
+      <c r="C18" s="6">
+        <v>23548</v>
       </c>
       <c r="D18" s="4">
-        <v>145</v>
+        <v>1492</v>
       </c>
       <c r="E18" s="4">
-        <v>408</v>
-      </c>
-      <c r="F18" s="10">
-        <v>6437</v>
-      </c>
-      <c r="G18" s="9">
-        <v>6285885</v>
+        <v>15408</v>
+      </c>
+      <c r="F18" s="7">
+        <v>63163</v>
+      </c>
+      <c r="G18" s="6">
+        <v>22095</v>
       </c>
       <c r="H18" s="4">
-        <v>86</v>
+        <v>1409</v>
       </c>
       <c r="I18" s="4">
-        <v>278</v>
+        <v>14628</v>
       </c>
       <c r="J18" s="5">
-        <v>8434</v>
-      </c>
-      <c r="K18" s="9" t="s">
+        <v>58902</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -1770,10 +1773,10 @@
       <c r="M18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" s="9" t="s">
+      <c r="N18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P18" s="4" t="s">
@@ -1782,10 +1785,10 @@
       <c r="Q18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S18" s="9" t="s">
+      <c r="R18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T18" s="4" t="s">
@@ -1794,10 +1797,10 @@
       <c r="U18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W18" s="9" t="s">
+      <c r="V18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="X18" s="4" t="s">
@@ -1809,7 +1812,7 @@
       <c r="Z18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AA18" s="9" t="s">
+      <c r="AA18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AB18" s="4" t="s">
@@ -1818,10 +1821,10 @@
       <c r="AC18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE18" s="9" t="s">
+      <c r="AD18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AF18" s="4" t="s">
@@ -1830,109 +1833,109 @@
       <c r="AG18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AH18" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="17" thickBot="1">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="11">
-        <v>116335</v>
-      </c>
-      <c r="L19" s="12">
-        <v>533</v>
-      </c>
-      <c r="M19" s="12">
-        <v>2318</v>
-      </c>
-      <c r="N19" s="13">
-        <v>5790</v>
-      </c>
-      <c r="O19" s="11">
-        <v>114908</v>
-      </c>
-      <c r="P19" s="12">
-        <v>546</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>2354</v>
-      </c>
-      <c r="R19" s="13">
-        <v>6316</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="X19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH19" s="13" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="8">
+        <v>53</v>
+      </c>
+      <c r="L19" s="9">
+        <v>4379</v>
+      </c>
+      <c r="M19" s="9">
+        <v>144764</v>
+      </c>
+      <c r="N19" s="10">
+        <v>327203</v>
+      </c>
+      <c r="O19" s="8">
+        <v>53</v>
+      </c>
+      <c r="P19" s="9">
+        <v>4413</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>150957</v>
+      </c>
+      <c r="R19" s="10">
+        <v>279058</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH19" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1950,15 +1953,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="C7:R9"/>
-    <mergeCell ref="S7:AH9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="AE10:AH10"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A18:B18"/>
@@ -1969,6 +1963,15 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="C7:R9"/>
+    <mergeCell ref="S7:AH9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="AE10:AH10"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
